--- a/EvidenciasPortafolio.xlsx
+++ b/EvidenciasPortafolio.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Talento AIEP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Talento AIEP\Compartido\CompartidoAndroid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431A309F-FD4C-4EFA-85A8-F85CE62FE278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFAA75B5-BDD6-457E-A095-C40012AE0F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21225" yWindow="6090" windowWidth="24300" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31425" yWindow="795" windowWidth="24390" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -93,10 +93,10 @@
     <t>consulta medica: Ingreso por teclado, crear menú y uso de colección</t>
   </si>
   <si>
-    <t>Crear proyecto y clases según diagrama. Sobre escribir el método mostrar datos.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Crear proyecto y clases según diagrama de clase para el caso de registro de vehiculos. Sobre escribir el método mostrar datos.</t>
   </si>
 </sst>
 </file>
@@ -138,7 +138,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -161,19 +161,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -455,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,57 +516,58 @@
     <col min="5" max="5" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="62" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="73" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E3" t="s">
@@ -529,94 +576,109 @@
       <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <v>16</v>
+      </c>
+      <c r="E10">
         <v>12</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
+    <mergeCell ref="G3:G6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EvidenciasPortafolio.xlsx
+++ b/EvidenciasPortafolio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Talento AIEP\Compartido\CompartidoAndroid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFAA75B5-BDD6-457E-A095-C40012AE0F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838A63CF-B4E3-461A-B4D4-2F1625150BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31425" yWindow="795" windowWidth="24390" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33855" yWindow="1545" windowWidth="20565" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Evidencias de Portafolio</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Crear proyecto y clases según diagrama de clase para el caso de registro de vehiculos. Sobre escribir el método mostrar datos.</t>
+  </si>
+  <si>
+    <t>Caso taller</t>
   </si>
 </sst>
 </file>
@@ -504,7 +507,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,7 +661,9 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="H8" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">

--- a/EvidenciasPortafolio.xlsx
+++ b/EvidenciasPortafolio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Talento AIEP\Compartido\CompartidoAndroid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838A63CF-B4E3-461A-B4D4-2F1625150BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66329B4-276D-4418-BB80-70D86F2FEC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33855" yWindow="1545" windowWidth="20565" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35310" yWindow="1320" windowWidth="20565" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Evidencias de Portafolio</t>
   </si>
@@ -100,13 +100,25 @@
   </si>
   <si>
     <t>Caso taller</t>
+  </si>
+  <si>
+    <t>Crear suite de pruebas</t>
+  </si>
+  <si>
+    <t>para 2 clases</t>
+  </si>
+  <si>
+    <t>6 test como minimo</t>
+  </si>
+  <si>
+    <t>Proyecto taller:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +128,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -205,13 +225,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -507,7 +528,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,16 +544,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -579,7 +600,7 @@
       <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>23</v>
       </c>
       <c r="H3" s="2"/>
@@ -601,8 +622,10 @@
       <c r="F4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="2"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -619,8 +642,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="2"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -635,8 +660,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="2"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -650,7 +677,9 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="H7" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">

--- a/EvidenciasPortafolio.xlsx
+++ b/EvidenciasPortafolio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Talento AIEP\Compartido\CompartidoAndroid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66329B4-276D-4418-BB80-70D86F2FEC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9217B807-B45E-4B03-9868-F9DD2807EF3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35310" yWindow="1320" windowWidth="20565" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21075" yWindow="5730" windowWidth="19050" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -141,7 +141,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,6 +160,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -225,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -245,6 +251,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,7 +535,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,11 +710,16 @@
         <v>17</v>
       </c>
       <c r="D10">
+        <v>17</v>
+      </c>
+      <c r="E10">
         <v>16</v>
       </c>
-      <c r="E10">
-        <v>12</v>
-      </c>
+      <c r="F10" s="9">
+        <v>16</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/EvidenciasPortafolio.xlsx
+++ b/EvidenciasPortafolio.xlsx
@@ -8,17 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Talento AIEP\Compartido\CompartidoAndroid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9217B807-B45E-4B03-9868-F9DD2807EF3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE6B609-D65E-4D1E-ADAF-C1A6A143D4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21075" yWindow="5730" windowWidth="19050" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21765" yWindow="1755" windowWidth="19050" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -239,6 +248,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -251,7 +261,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,16 +560,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -607,7 +616,7 @@
       <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H3" s="2"/>
@@ -629,7 +638,7 @@
       <c r="F4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="8"/>
       <c r="H4" s="4" t="s">
         <v>28</v>
       </c>
@@ -649,7 +658,7 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="4" t="s">
         <v>25</v>
       </c>
@@ -667,7 +676,7 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="8"/>
+      <c r="G6" s="9"/>
       <c r="H6" s="4" t="s">
         <v>26</v>
       </c>
@@ -715,11 +724,13 @@
       <c r="E10">
         <v>16</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10">
         <v>16</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="G10" s="5">
+        <v>12</v>
+      </c>
+      <c r="H10" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
